--- a/resultados/Venda de Drone/Com SPAD 3 Drones/vel20/field_100ha_100ha_6%_6m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 3 Drones/vel20/field_100ha_100ha_6%_6m_0_LM/Planilha_Unificada.xlsx
@@ -2502,28 +2502,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>683.1137373269095</v>
+        <v>745.4299608452511</v>
       </c>
       <c r="AB2" t="n">
-        <v>934.6663522618168</v>
+        <v>1019.930158477365</v>
       </c>
       <c r="AC2" t="n">
-        <v>845.4631074144127</v>
+        <v>922.5894556332527</v>
       </c>
       <c r="AD2" t="n">
-        <v>683113.7373269094</v>
+        <v>745429.9608452511</v>
       </c>
       <c r="AE2" t="n">
-        <v>934666.3522618167</v>
+        <v>1019930.158477365</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.039318412097899e-06</v>
+        <v>3.447568958883905e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.936111111111112</v>
       </c>
       <c r="AH2" t="n">
-        <v>845463.1074144127</v>
+        <v>922589.4556332526</v>
       </c>
     </row>
     <row r="3">
@@ -2608,28 +2608,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>251.1676630779523</v>
+        <v>282.2405234911056</v>
       </c>
       <c r="AB3" t="n">
-        <v>343.6586773583491</v>
+        <v>386.1739358136404</v>
       </c>
       <c r="AC3" t="n">
-        <v>310.8603755193537</v>
+        <v>349.3180373781087</v>
       </c>
       <c r="AD3" t="n">
-        <v>251167.6630779523</v>
+        <v>282240.5234911056</v>
       </c>
       <c r="AE3" t="n">
-        <v>343658.6773583491</v>
+        <v>386173.9358136404</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.758566390248964e-06</v>
+        <v>6.354042968501677e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.390277777777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>310860.3755193537</v>
+        <v>349318.0373781087</v>
       </c>
     </row>
     <row r="4">
@@ -2714,28 +2714,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>198.5155014297032</v>
+        <v>229.6736131888737</v>
       </c>
       <c r="AB4" t="n">
-        <v>271.6176669418174</v>
+        <v>314.2495700495696</v>
       </c>
       <c r="AC4" t="n">
-        <v>245.6948580267598</v>
+        <v>284.2580321361734</v>
       </c>
       <c r="AD4" t="n">
-        <v>198515.5014297032</v>
+        <v>229673.6131888737</v>
       </c>
       <c r="AE4" t="n">
-        <v>271617.6669418174</v>
+        <v>314249.5700495696</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.298192887591416e-06</v>
+        <v>7.266308336475891e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.713888888888889</v>
       </c>
       <c r="AH4" t="n">
-        <v>245694.8580267598</v>
+        <v>284258.0321361734</v>
       </c>
     </row>
     <row r="5">
@@ -2820,28 +2820,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>172.1230518283436</v>
+        <v>192.8667688914844</v>
       </c>
       <c r="AB5" t="n">
-        <v>235.5063530445548</v>
+        <v>263.8888218785387</v>
       </c>
       <c r="AC5" t="n">
-        <v>213.029957245293</v>
+        <v>238.7036430888157</v>
       </c>
       <c r="AD5" t="n">
-        <v>172123.0518283436</v>
+        <v>192866.7688914844</v>
       </c>
       <c r="AE5" t="n">
-        <v>235506.3530445548</v>
+        <v>263888.8218785387</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.696749143536152e-06</v>
+        <v>7.940087461997805e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.313888888888888</v>
       </c>
       <c r="AH5" t="n">
-        <v>213029.957245293</v>
+        <v>238703.6430888157</v>
       </c>
     </row>
     <row r="6">
@@ -2926,28 +2926,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>161.8387121451013</v>
+        <v>182.5824292082421</v>
       </c>
       <c r="AB6" t="n">
-        <v>221.4348657769044</v>
+        <v>249.8173346108883</v>
       </c>
       <c r="AC6" t="n">
-        <v>200.3014329730063</v>
+        <v>225.9751188165289</v>
       </c>
       <c r="AD6" t="n">
-        <v>161838.7121451013</v>
+        <v>182582.4292082421</v>
       </c>
       <c r="AE6" t="n">
-        <v>221434.8657769044</v>
+        <v>249817.3346108883</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.830962816841114e-06</v>
+        <v>8.166982335892447e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.194444444444445</v>
       </c>
       <c r="AH6" t="n">
-        <v>200301.4329730063</v>
+        <v>225975.1188165289</v>
       </c>
     </row>
     <row r="7">
@@ -3032,28 +3032,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>154.9231999916821</v>
+        <v>175.666917054823</v>
       </c>
       <c r="AB7" t="n">
-        <v>211.9727569577371</v>
+        <v>240.355225791721</v>
       </c>
       <c r="AC7" t="n">
-        <v>191.7423745393841</v>
+        <v>217.4160603829068</v>
       </c>
       <c r="AD7" t="n">
-        <v>154923.1999916821</v>
+        <v>175666.917054823</v>
       </c>
       <c r="AE7" t="n">
-        <v>211972.7569577371</v>
+        <v>240355.225791721</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.942856172737751e-06</v>
+        <v>8.356143605758958e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>5</v>
+        <v>4.098611111111111</v>
       </c>
       <c r="AH7" t="n">
-        <v>191742.3745393841</v>
+        <v>217416.0603829068</v>
       </c>
     </row>
   </sheetData>
@@ -3329,28 +3329,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>420.0285396901269</v>
+        <v>460.3908110655674</v>
       </c>
       <c r="AB2" t="n">
-        <v>574.7015783553971</v>
+        <v>629.9270187090153</v>
       </c>
       <c r="AC2" t="n">
-        <v>519.8528663158884</v>
+        <v>569.8076681515496</v>
       </c>
       <c r="AD2" t="n">
-        <v>420028.5396901269</v>
+        <v>460390.8110655674</v>
       </c>
       <c r="AE2" t="n">
-        <v>574701.5783553971</v>
+        <v>629927.0187090153</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.689614244734647e-06</v>
+        <v>4.657849762629896e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.793055555555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>519852.8663158884</v>
+        <v>569807.6681515496</v>
       </c>
     </row>
     <row r="3">
@@ -3435,28 +3435,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>191.0894388671242</v>
+        <v>221.2758015441326</v>
       </c>
       <c r="AB3" t="n">
-        <v>261.4570005289436</v>
+        <v>302.7593136719383</v>
       </c>
       <c r="AC3" t="n">
-        <v>236.5039113557424</v>
+        <v>273.8643897005435</v>
       </c>
       <c r="AD3" t="n">
-        <v>191089.4388671242</v>
+        <v>221275.8015441326</v>
       </c>
       <c r="AE3" t="n">
-        <v>261457.0005289436</v>
+        <v>302759.3136719383</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.29143029195794e-06</v>
+        <v>7.431860388853311e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.884722222222223</v>
       </c>
       <c r="AH3" t="n">
-        <v>236503.9113557425</v>
+        <v>273864.3897005435</v>
       </c>
     </row>
     <row r="4">
@@ -3541,28 +3541,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>159.985670030244</v>
+        <v>180.0815543719434</v>
       </c>
       <c r="AB4" t="n">
-        <v>218.8994518049094</v>
+        <v>246.3955273290551</v>
       </c>
       <c r="AC4" t="n">
-        <v>198.0079953520218</v>
+        <v>222.8798840191362</v>
       </c>
       <c r="AD4" t="n">
-        <v>159985.670030244</v>
+        <v>180081.5543719434</v>
       </c>
       <c r="AE4" t="n">
-        <v>218899.4518049094</v>
+        <v>246395.5273290551</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.811032011440679e-06</v>
+        <v>8.331701974126275e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.356944444444444</v>
       </c>
       <c r="AH4" t="n">
-        <v>198007.9953520218</v>
+        <v>222879.8840191362</v>
       </c>
     </row>
     <row r="5">
@@ -3647,28 +3647,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>144.3756280020432</v>
+        <v>164.4715123437426</v>
       </c>
       <c r="AB5" t="n">
-        <v>197.5411036354851</v>
+        <v>225.0371791596308</v>
       </c>
       <c r="AC5" t="n">
-        <v>178.6880579552506</v>
+        <v>203.559946622365</v>
       </c>
       <c r="AD5" t="n">
-        <v>144375.6280020431</v>
+        <v>164471.5123437426</v>
       </c>
       <c r="AE5" t="n">
-        <v>197541.1036354851</v>
+        <v>225037.1791596308</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.078906845039827e-06</v>
+        <v>8.795605202084307e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.126388888888889</v>
       </c>
       <c r="AH5" t="n">
-        <v>178688.0579552506</v>
+        <v>203559.946622365</v>
       </c>
     </row>
     <row r="6">
@@ -3753,28 +3753,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>145.2219857085004</v>
+        <v>165.3178700501998</v>
       </c>
       <c r="AB6" t="n">
-        <v>198.6991275881261</v>
+        <v>226.1952031122719</v>
       </c>
       <c r="AC6" t="n">
-        <v>179.7355617271488</v>
+        <v>204.6074503942632</v>
       </c>
       <c r="AD6" t="n">
-        <v>145221.9857085004</v>
+        <v>165317.8700501999</v>
       </c>
       <c r="AE6" t="n">
-        <v>198699.1275881261</v>
+        <v>226195.2031122718</v>
       </c>
       <c r="AF6" t="n">
-        <v>5.068191851695861e-06</v>
+        <v>8.777049072965984e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.136111111111111</v>
       </c>
       <c r="AH6" t="n">
-        <v>179735.5617271488</v>
+        <v>204607.4503942632</v>
       </c>
     </row>
   </sheetData>
@@ -4050,28 +4050,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>140.1023343971704</v>
+        <v>167.3630903807444</v>
       </c>
       <c r="AB2" t="n">
-        <v>191.6941948008926</v>
+        <v>228.9935637972745</v>
       </c>
       <c r="AC2" t="n">
-        <v>173.3991698936417</v>
+        <v>207.1387394630139</v>
       </c>
       <c r="AD2" t="n">
-        <v>140102.3343971703</v>
+        <v>167363.0903807444</v>
       </c>
       <c r="AE2" t="n">
-        <v>191694.1948008926</v>
+        <v>228993.5637972745</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.797367819554252e-06</v>
+        <v>9.077652258832293e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.875</v>
       </c>
       <c r="AH2" t="n">
-        <v>173399.1698936417</v>
+        <v>207138.7394630139</v>
       </c>
     </row>
     <row r="3">
@@ -4156,28 +4156,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>123.2833985401492</v>
+        <v>141.4288784195591</v>
       </c>
       <c r="AB3" t="n">
-        <v>168.6817847622454</v>
+        <v>193.5092308553159</v>
       </c>
       <c r="AC3" t="n">
-        <v>152.5830319709553</v>
+        <v>175.0409814544505</v>
       </c>
       <c r="AD3" t="n">
-        <v>123283.3985401492</v>
+        <v>141428.8784195591</v>
       </c>
       <c r="AE3" t="n">
-        <v>168681.7847622454</v>
+        <v>193509.2308553159</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.221061214457316e-06</v>
+        <v>9.879371336451712e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.479166666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>152583.0319709553</v>
+        <v>175040.9814544505</v>
       </c>
     </row>
   </sheetData>
@@ -4453,28 +4453,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>211.661782834297</v>
+        <v>240.151675171214</v>
       </c>
       <c r="AB2" t="n">
-        <v>289.6049891325767</v>
+        <v>328.5861167132705</v>
       </c>
       <c r="AC2" t="n">
-        <v>261.965495433004</v>
+        <v>297.2263189077648</v>
       </c>
       <c r="AD2" t="n">
-        <v>211661.782834297</v>
+        <v>240151.675171214</v>
       </c>
       <c r="AE2" t="n">
-        <v>289604.9891325767</v>
+        <v>328586.1167132705</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.925102627979119e-06</v>
+        <v>7.150684554877958e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.699999999999999</v>
       </c>
       <c r="AH2" t="n">
-        <v>261965.495433004</v>
+        <v>297226.3189077649</v>
       </c>
     </row>
     <row r="3">
@@ -4559,28 +4559,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>133.1801315432394</v>
+        <v>152.0881417551635</v>
       </c>
       <c r="AB3" t="n">
-        <v>182.2229314701122</v>
+        <v>208.0937052045921</v>
       </c>
       <c r="AC3" t="n">
-        <v>164.8318306421464</v>
+        <v>188.2335340412747</v>
       </c>
       <c r="AD3" t="n">
-        <v>133180.1315432394</v>
+        <v>152088.1417551635</v>
       </c>
       <c r="AE3" t="n">
-        <v>182222.9314701122</v>
+        <v>208093.7052045921</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.135466116897489e-06</v>
+        <v>9.35570397126271e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.356944444444444</v>
       </c>
       <c r="AH3" t="n">
-        <v>164831.8306421464</v>
+        <v>188233.5340412747</v>
       </c>
     </row>
     <row r="4">
@@ -4665,28 +4665,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>130.0516087840316</v>
+        <v>148.9596189959557</v>
       </c>
       <c r="AB4" t="n">
-        <v>177.9423486102831</v>
+        <v>203.813122344763</v>
       </c>
       <c r="AC4" t="n">
-        <v>160.9597806026222</v>
+        <v>184.3614840017506</v>
       </c>
       <c r="AD4" t="n">
-        <v>130051.6087840316</v>
+        <v>148959.6189959557</v>
       </c>
       <c r="AE4" t="n">
-        <v>177942.3486102831</v>
+        <v>203813.122344763</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.225522444636789e-06</v>
+        <v>9.519767042440545e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.281944444444444</v>
       </c>
       <c r="AH4" t="n">
-        <v>160959.7806026222</v>
+        <v>184361.4840017506</v>
       </c>
     </row>
   </sheetData>
@@ -4962,28 +4962,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>119.5832822598188</v>
+        <v>145.9058913064488</v>
       </c>
       <c r="AB2" t="n">
-        <v>163.6191224298904</v>
+        <v>199.6348773990241</v>
       </c>
       <c r="AC2" t="n">
-        <v>148.0035430261075</v>
+        <v>180.5820048894282</v>
       </c>
       <c r="AD2" t="n">
-        <v>119583.2822598188</v>
+        <v>145905.8913064488</v>
       </c>
       <c r="AE2" t="n">
-        <v>163619.1224298904</v>
+        <v>199634.8773990241</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.085659464286253e-06</v>
+        <v>9.966253948143256e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.776388888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>148003.5430261075</v>
+        <v>180582.0048894281</v>
       </c>
     </row>
     <row r="3">
@@ -5068,28 +5068,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>120.0012702094531</v>
+        <v>146.3238792560831</v>
       </c>
       <c r="AB3" t="n">
-        <v>164.1910319829067</v>
+        <v>200.2067869520404</v>
       </c>
       <c r="AC3" t="n">
-        <v>148.5208703340641</v>
+        <v>181.0993321973848</v>
       </c>
       <c r="AD3" t="n">
-        <v>120001.2702094531</v>
+        <v>146323.8792560831</v>
       </c>
       <c r="AE3" t="n">
-        <v>164191.0319829067</v>
+        <v>200206.7869520404</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.098077162269757e-06</v>
+        <v>9.990588635202825e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.765277777777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>148520.8703340641</v>
+        <v>181099.3321973848</v>
       </c>
     </row>
   </sheetData>
@@ -5365,28 +5365,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>478.1035119375582</v>
+        <v>518.721086551602</v>
       </c>
       <c r="AB2" t="n">
-        <v>654.162317471285</v>
+        <v>709.7370749791442</v>
       </c>
       <c r="AC2" t="n">
-        <v>591.7299840144037</v>
+        <v>642.000764665375</v>
       </c>
       <c r="AD2" t="n">
-        <v>478103.5119375582</v>
+        <v>518721.0865516019</v>
       </c>
       <c r="AE2" t="n">
-        <v>654162.317471285</v>
+        <v>709737.0749791441</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.516342575156117e-06</v>
+        <v>4.32932011165809e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.254166666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>591729.9840144038</v>
+        <v>642000.764665375</v>
       </c>
     </row>
     <row r="3">
@@ -5471,28 +5471,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>202.5241170110099</v>
+        <v>232.9658956264861</v>
       </c>
       <c r="AB3" t="n">
-        <v>277.1024316277966</v>
+        <v>318.7542161259588</v>
       </c>
       <c r="AC3" t="n">
-        <v>250.6561644690264</v>
+        <v>288.332761113344</v>
       </c>
       <c r="AD3" t="n">
-        <v>202524.1170110099</v>
+        <v>232965.8956264861</v>
       </c>
       <c r="AE3" t="n">
-        <v>277102.4316277966</v>
+        <v>318754.2161259588</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.154320814865466e-06</v>
+        <v>7.14743089102685e-06</v>
       </c>
       <c r="AG3" t="n">
         <v>5</v>
       </c>
       <c r="AH3" t="n">
-        <v>250656.1644690264</v>
+        <v>288332.761113344</v>
       </c>
     </row>
     <row r="4">
@@ -5577,28 +5577,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>170.5746863069018</v>
+        <v>190.8408479409131</v>
       </c>
       <c r="AB4" t="n">
-        <v>233.3878110290534</v>
+        <v>261.1168674566441</v>
       </c>
       <c r="AC4" t="n">
-        <v>211.113605906358</v>
+        <v>236.1962401064833</v>
       </c>
       <c r="AD4" t="n">
-        <v>170574.6863069018</v>
+        <v>190840.8479409131</v>
       </c>
       <c r="AE4" t="n">
-        <v>233387.8110290534</v>
+        <v>261116.8674566441</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.653401657260472e-06</v>
+        <v>8.006090101285576e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.463888888888889</v>
       </c>
       <c r="AH4" t="n">
-        <v>211113.605906358</v>
+        <v>236196.2401064833</v>
       </c>
     </row>
     <row r="5">
@@ -5683,28 +5683,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>147.7830834033076</v>
+        <v>168.049245037319</v>
       </c>
       <c r="AB5" t="n">
-        <v>202.2033344418156</v>
+        <v>229.9323908694063</v>
       </c>
       <c r="AC5" t="n">
-        <v>182.9053319969085</v>
+        <v>207.9879661970339</v>
       </c>
       <c r="AD5" t="n">
-        <v>147783.0834033076</v>
+        <v>168049.245037319</v>
       </c>
       <c r="AE5" t="n">
-        <v>202203.3344418156</v>
+        <v>229932.3908694063</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.041658734532702e-06</v>
+        <v>8.674079106329521e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.119444444444444</v>
       </c>
       <c r="AH5" t="n">
-        <v>182905.3319969085</v>
+        <v>207987.9661970339</v>
       </c>
     </row>
     <row r="6">
@@ -5789,28 +5789,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>146.7163842805021</v>
+        <v>166.9825459145134</v>
       </c>
       <c r="AB6" t="n">
-        <v>200.7438296425498</v>
+        <v>228.4728860701405</v>
       </c>
       <c r="AC6" t="n">
-        <v>181.5851202872563</v>
+        <v>206.6677544873817</v>
       </c>
       <c r="AD6" t="n">
-        <v>146716.3842805021</v>
+        <v>166982.5459145134</v>
       </c>
       <c r="AE6" t="n">
-        <v>200743.8296425498</v>
+        <v>228472.8860701405</v>
       </c>
       <c r="AF6" t="n">
-        <v>5.052427035597263e-06</v>
+        <v>8.692605765945534e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.111111111111111</v>
       </c>
       <c r="AH6" t="n">
-        <v>181585.1202872563</v>
+        <v>206667.7544873817</v>
       </c>
     </row>
   </sheetData>
@@ -6086,28 +6086,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>126.7939915634684</v>
+        <v>144.0290320378618</v>
       </c>
       <c r="AB2" t="n">
-        <v>173.485133013182</v>
+        <v>197.0668757465576</v>
       </c>
       <c r="AC2" t="n">
-        <v>156.9279554063656</v>
+        <v>178.2590897104592</v>
       </c>
       <c r="AD2" t="n">
-        <v>126793.9915634684</v>
+        <v>144029.0320378618</v>
       </c>
       <c r="AE2" t="n">
-        <v>173485.1330131819</v>
+        <v>197066.8757465576</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.959001805257342e-06</v>
+        <v>9.941114426517666e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.0125</v>
       </c>
       <c r="AH2" t="n">
-        <v>156927.9554063656</v>
+        <v>178259.0897104592</v>
       </c>
     </row>
   </sheetData>
@@ -6383,28 +6383,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>301.2529534888119</v>
+        <v>340.4246196115001</v>
       </c>
       <c r="AB2" t="n">
-        <v>412.1875813057162</v>
+        <v>465.783983026722</v>
       </c>
       <c r="AC2" t="n">
-        <v>372.8489770548015</v>
+        <v>421.3302134185769</v>
       </c>
       <c r="AD2" t="n">
-        <v>301252.9534888119</v>
+        <v>340424.6196115001</v>
       </c>
       <c r="AE2" t="n">
-        <v>412187.5813057161</v>
+        <v>465783.983026722</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.246623384249589e-06</v>
+        <v>5.750011260024756e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.651388888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>372848.9770548015</v>
+        <v>421330.2134185769</v>
       </c>
     </row>
     <row r="3">
@@ -6489,28 +6489,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>155.0374093504654</v>
+        <v>174.5806614930745</v>
       </c>
       <c r="AB3" t="n">
-        <v>212.1290232409855</v>
+        <v>238.8689630099242</v>
       </c>
       <c r="AC3" t="n">
-        <v>191.8837269878806</v>
+        <v>216.0716444350214</v>
       </c>
       <c r="AD3" t="n">
-        <v>155037.4093504654</v>
+        <v>174580.6614930745</v>
       </c>
       <c r="AE3" t="n">
-        <v>212129.0232409855</v>
+        <v>238868.9630099242</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.8228217197926e-06</v>
+        <v>8.541575634683325e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.477777777777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>191883.7269878805</v>
+        <v>216071.6444350214</v>
       </c>
     </row>
     <row r="4">
@@ -6595,28 +6595,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>137.8200511917118</v>
+        <v>157.3633033343208</v>
       </c>
       <c r="AB4" t="n">
-        <v>188.5714742319568</v>
+        <v>215.3114140008956</v>
       </c>
       <c r="AC4" t="n">
-        <v>170.5744773930383</v>
+        <v>194.7623948401792</v>
       </c>
       <c r="AD4" t="n">
-        <v>137820.0511917118</v>
+        <v>157363.3033343208</v>
       </c>
       <c r="AE4" t="n">
-        <v>188571.4742319568</v>
+        <v>215311.4140008955</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.140798004313213e-06</v>
+        <v>9.104735262401268e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.201388888888889</v>
       </c>
       <c r="AH4" t="n">
-        <v>170574.4773930383</v>
+        <v>194762.3948401792</v>
       </c>
     </row>
     <row r="5">
@@ -6701,28 +6701,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>137.5809422090329</v>
+        <v>157.1241943516419</v>
       </c>
       <c r="AB5" t="n">
-        <v>188.2443147731119</v>
+        <v>214.9842545420506</v>
       </c>
       <c r="AC5" t="n">
-        <v>170.2785415737743</v>
+        <v>194.4664590209152</v>
       </c>
       <c r="AD5" t="n">
-        <v>137580.9422090329</v>
+        <v>157124.1943516419</v>
       </c>
       <c r="AE5" t="n">
-        <v>188244.3147731119</v>
+        <v>214984.2545420506</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.158679311266695e-06</v>
+        <v>9.13640438572037e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.186111111111111</v>
       </c>
       <c r="AH5" t="n">
-        <v>170278.5415737743</v>
+        <v>194466.4590209152</v>
       </c>
     </row>
   </sheetData>
@@ -6998,28 +6998,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>378.455776479835</v>
+        <v>418.2939510545454</v>
       </c>
       <c r="AB2" t="n">
-        <v>517.8198896702046</v>
+        <v>572.3282376595447</v>
       </c>
       <c r="AC2" t="n">
-        <v>468.399886164859</v>
+        <v>517.7060339250436</v>
       </c>
       <c r="AD2" t="n">
-        <v>378455.776479835</v>
+        <v>418293.9510545454</v>
       </c>
       <c r="AE2" t="n">
-        <v>517819.8896702045</v>
+        <v>572328.2376595447</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.870100080910977e-06</v>
+        <v>5.005203926253251e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.372222222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>468399.8861648591</v>
+        <v>517706.0339250436</v>
       </c>
     </row>
     <row r="3">
@@ -7104,28 +7104,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>178.8637622438174</v>
+        <v>208.7849964707223</v>
       </c>
       <c r="AB3" t="n">
-        <v>244.7292904141569</v>
+        <v>285.6688431150786</v>
       </c>
       <c r="AC3" t="n">
-        <v>221.3726704168171</v>
+        <v>258.405009666999</v>
       </c>
       <c r="AD3" t="n">
-        <v>178863.7622438174</v>
+        <v>208784.9964707223</v>
       </c>
       <c r="AE3" t="n">
-        <v>244729.2904141569</v>
+        <v>285668.8431150786</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.45452817377547e-06</v>
+        <v>7.768308169208494e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AH3" t="n">
-        <v>221372.6704168171</v>
+        <v>258405.009666999</v>
       </c>
     </row>
     <row r="4">
@@ -7210,28 +7210,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>150.8284893605608</v>
+        <v>170.7476214021912</v>
       </c>
       <c r="AB4" t="n">
-        <v>206.3701932263559</v>
+        <v>233.6244284557862</v>
       </c>
       <c r="AC4" t="n">
-        <v>186.6745116272766</v>
+        <v>211.3276408979781</v>
       </c>
       <c r="AD4" t="n">
-        <v>150828.4893605608</v>
+        <v>170747.6214021912</v>
       </c>
       <c r="AE4" t="n">
-        <v>206370.1932263559</v>
+        <v>233624.4284557862</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.947376719969375e-06</v>
+        <v>8.627792998627744e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.276388888888889</v>
       </c>
       <c r="AH4" t="n">
-        <v>186674.5116272766</v>
+        <v>211327.6408979781</v>
       </c>
     </row>
     <row r="5">
@@ -7316,28 +7316,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>142.0385428618337</v>
+        <v>161.9576749034642</v>
       </c>
       <c r="AB5" t="n">
-        <v>194.3434006417326</v>
+        <v>221.5976358711629</v>
       </c>
       <c r="AC5" t="n">
-        <v>175.7955392472165</v>
+        <v>200.4486685179181</v>
       </c>
       <c r="AD5" t="n">
-        <v>142038.5428618338</v>
+        <v>161957.6749034642</v>
       </c>
       <c r="AE5" t="n">
-        <v>194343.4006417326</v>
+        <v>221597.6358711629</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.104448389560077e-06</v>
+        <v>8.90171227502071e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.145833333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>175795.5392472165</v>
+        <v>200448.6685179181</v>
       </c>
     </row>
   </sheetData>
@@ -7613,28 +7613,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>605.8213805461547</v>
+        <v>657.3379149648093</v>
       </c>
       <c r="AB2" t="n">
-        <v>828.9115398162656</v>
+        <v>899.3987349569649</v>
       </c>
       <c r="AC2" t="n">
-        <v>749.8013858408535</v>
+        <v>813.5613820067241</v>
       </c>
       <c r="AD2" t="n">
-        <v>605821.3805461547</v>
+        <v>657337.9149648093</v>
       </c>
       <c r="AE2" t="n">
-        <v>828911.5398162657</v>
+        <v>899398.7349569649</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.196201201642578e-06</v>
+        <v>3.7333964865297e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.299999999999999</v>
       </c>
       <c r="AH2" t="n">
-        <v>749801.3858408536</v>
+        <v>813561.3820067241</v>
       </c>
     </row>
     <row r="3">
@@ -7719,28 +7719,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>236.923293569274</v>
+        <v>257.5982337255235</v>
       </c>
       <c r="AB3" t="n">
-        <v>324.168902579354</v>
+        <v>352.4572678151063</v>
       </c>
       <c r="AC3" t="n">
-        <v>293.2306774911891</v>
+        <v>318.8192408518201</v>
       </c>
       <c r="AD3" t="n">
-        <v>236923.293569274</v>
+        <v>257598.2337255235</v>
       </c>
       <c r="AE3" t="n">
-        <v>324168.902579354</v>
+        <v>352457.2678151063</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.89478306171445e-06</v>
+        <v>6.620873072797163e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.244444444444444</v>
       </c>
       <c r="AH3" t="n">
-        <v>293230.677491189</v>
+        <v>318819.2408518201</v>
       </c>
     </row>
     <row r="4">
@@ -7825,28 +7825,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>195.2152835370941</v>
+        <v>226.1422186540701</v>
       </c>
       <c r="AB4" t="n">
-        <v>267.102163225814</v>
+        <v>309.4177602529222</v>
       </c>
       <c r="AC4" t="n">
-        <v>241.610307647861</v>
+        <v>279.8873634850289</v>
       </c>
       <c r="AD4" t="n">
-        <v>195215.283537094</v>
+        <v>226142.2186540701</v>
       </c>
       <c r="AE4" t="n">
-        <v>267102.163225814</v>
+        <v>309417.7602529222</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.320788745086298e-06</v>
+        <v>7.345054500415277e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.726388888888889</v>
       </c>
       <c r="AH4" t="n">
-        <v>241610.307647861</v>
+        <v>279887.3634850289</v>
       </c>
     </row>
     <row r="5">
@@ -7931,28 +7931,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>164.4668524638988</v>
+        <v>185.0564517655766</v>
       </c>
       <c r="AB5" t="n">
-        <v>225.0308033064491</v>
+        <v>253.2024014200037</v>
       </c>
       <c r="AC5" t="n">
-        <v>203.5541792716623</v>
+        <v>229.0371196003546</v>
       </c>
       <c r="AD5" t="n">
-        <v>164466.8524638988</v>
+        <v>185056.4517655766</v>
       </c>
       <c r="AE5" t="n">
-        <v>225030.8033064491</v>
+        <v>253202.4014200037</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.797968048690594e-06</v>
+        <v>8.156227690826316e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.256944444444445</v>
       </c>
       <c r="AH5" t="n">
-        <v>203554.1792716623</v>
+        <v>229037.1196003546</v>
       </c>
     </row>
     <row r="6">
@@ -8037,28 +8037,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>153.2875147445527</v>
+        <v>173.8771140462306</v>
       </c>
       <c r="AB6" t="n">
-        <v>209.7347402412755</v>
+        <v>237.9063383548302</v>
       </c>
       <c r="AC6" t="n">
-        <v>189.7179509972647</v>
+        <v>215.200891325957</v>
       </c>
       <c r="AD6" t="n">
-        <v>153287.5147445527</v>
+        <v>173877.1140462306</v>
       </c>
       <c r="AE6" t="n">
-        <v>209734.7402412755</v>
+        <v>237906.3383548302</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.954429922044977e-06</v>
+        <v>8.422202505802388e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.122222222222223</v>
       </c>
       <c r="AH6" t="n">
-        <v>189717.9509972647</v>
+        <v>215200.891325957</v>
       </c>
     </row>
     <row r="7">
@@ -8143,28 +8143,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>152.4808214743505</v>
+        <v>173.0704207760284</v>
       </c>
       <c r="AB7" t="n">
-        <v>208.6309869201901</v>
+        <v>236.8025850337447</v>
       </c>
       <c r="AC7" t="n">
-        <v>188.7195383440158</v>
+        <v>214.2024786727081</v>
       </c>
       <c r="AD7" t="n">
-        <v>152480.8214743505</v>
+        <v>173070.4207760284</v>
       </c>
       <c r="AE7" t="n">
-        <v>208630.9869201901</v>
+        <v>236802.5850337447</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.976193415707053e-06</v>
+        <v>8.459199002622366e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>5</v>
+        <v>4.104166666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>188719.5383440158</v>
+        <v>214202.4786727081</v>
       </c>
     </row>
   </sheetData>
@@ -8440,28 +8440,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>235.6903525574818</v>
+        <v>273.9522562929575</v>
       </c>
       <c r="AB2" t="n">
-        <v>322.4819382935023</v>
+        <v>374.8335629805916</v>
       </c>
       <c r="AC2" t="n">
-        <v>291.7047147091092</v>
+        <v>339.0599738119329</v>
       </c>
       <c r="AD2" t="n">
-        <v>235690.3525574818</v>
+        <v>273952.2562929575</v>
       </c>
       <c r="AE2" t="n">
-        <v>322481.9382935023</v>
+        <v>374833.5629805916</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.683643064344337e-06</v>
+        <v>6.642480142095656e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.998611111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>291704.7147091092</v>
+        <v>339059.973811933</v>
       </c>
     </row>
     <row r="3">
@@ -8546,28 +8546,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>148.2910860610595</v>
+        <v>167.5927196379388</v>
       </c>
       <c r="AB3" t="n">
-        <v>202.8984060896469</v>
+        <v>229.3077526774955</v>
       </c>
       <c r="AC3" t="n">
-        <v>183.5340669822101</v>
+        <v>207.4229425974737</v>
       </c>
       <c r="AD3" t="n">
-        <v>148291.0860610595</v>
+        <v>167592.7196379388</v>
       </c>
       <c r="AE3" t="n">
-        <v>202898.4060896469</v>
+        <v>229307.7526774955</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.851336439092229e-06</v>
+        <v>8.748107619659125e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.554166666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>183534.0669822101</v>
+        <v>207422.9425974737</v>
       </c>
     </row>
     <row r="4">
@@ -8652,28 +8652,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>132.4048193362167</v>
+        <v>151.5358607125038</v>
       </c>
       <c r="AB4" t="n">
-        <v>181.1621151041037</v>
+        <v>207.3380499171055</v>
       </c>
       <c r="AC4" t="n">
-        <v>163.8722571012443</v>
+        <v>187.5499974338568</v>
       </c>
       <c r="AD4" t="n">
-        <v>132404.8193362167</v>
+        <v>151535.8607125038</v>
       </c>
       <c r="AE4" t="n">
-        <v>181162.1151041037</v>
+        <v>207338.0499171055</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.211507801548526e-06</v>
+        <v>9.397581817098319e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.240277777777778</v>
       </c>
       <c r="AH4" t="n">
-        <v>163872.2571012443</v>
+        <v>187549.9974338568</v>
       </c>
     </row>
   </sheetData>
@@ -8949,28 +8949,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>169.8493821768906</v>
+        <v>188.3529126843939</v>
       </c>
       <c r="AB2" t="n">
-        <v>232.3954179202127</v>
+        <v>257.7127646787191</v>
       </c>
       <c r="AC2" t="n">
-        <v>210.2159254029922</v>
+        <v>233.1170201199942</v>
       </c>
       <c r="AD2" t="n">
-        <v>169849.3821768906</v>
+        <v>188352.9126843939</v>
       </c>
       <c r="AE2" t="n">
-        <v>232395.4179202127</v>
+        <v>257712.7646787191</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.458401201838685e-06</v>
+        <v>8.317951547064218e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.162500000000001</v>
       </c>
       <c r="AH2" t="n">
-        <v>210215.9254029922</v>
+        <v>233117.0201199942</v>
       </c>
     </row>
     <row r="3">
@@ -9055,28 +9055,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>124.923180209059</v>
+        <v>143.3413698619906</v>
       </c>
       <c r="AB3" t="n">
-        <v>170.9254063837083</v>
+        <v>196.1259860200171</v>
       </c>
       <c r="AC3" t="n">
-        <v>154.6125254938092</v>
+        <v>177.4079971788724</v>
       </c>
       <c r="AD3" t="n">
-        <v>124923.180209059</v>
+        <v>143341.3698619906</v>
       </c>
       <c r="AE3" t="n">
-        <v>170925.4063837083</v>
+        <v>196125.9860200171</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.247205458482758e-06</v>
+        <v>9.789608154409806e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.38611111111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>154612.5254938092</v>
+        <v>177407.9971788724</v>
       </c>
     </row>
   </sheetData>
@@ -15821,28 +15821,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>123.9808999655992</v>
+        <v>150.7960270505053</v>
       </c>
       <c r="AB2" t="n">
-        <v>169.6361369841368</v>
+        <v>206.325776861602</v>
       </c>
       <c r="AC2" t="n">
-        <v>153.4463021562315</v>
+        <v>186.6343342980361</v>
       </c>
       <c r="AD2" t="n">
-        <v>123980.8999655992</v>
+        <v>150796.0270505053</v>
       </c>
       <c r="AE2" t="n">
-        <v>169636.1369841368</v>
+        <v>206325.776861602</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.092000001530104e-06</v>
+        <v>9.792104832673142e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.67638888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>153446.3021562315</v>
+        <v>186634.3342980361</v>
       </c>
     </row>
     <row r="3">
@@ -15927,28 +15927,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>121.5840577721476</v>
+        <v>139.6030439197044</v>
       </c>
       <c r="AB3" t="n">
-        <v>166.3566717538433</v>
+        <v>191.0110435424828</v>
       </c>
       <c r="AC3" t="n">
-        <v>150.4798244847578</v>
+        <v>172.7812176325255</v>
       </c>
       <c r="AD3" t="n">
-        <v>121584.0577721476</v>
+        <v>139603.0439197044</v>
       </c>
       <c r="AE3" t="n">
-        <v>166356.6717538433</v>
+        <v>191011.0435424828</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.172912471255468e-06</v>
+        <v>9.947702512481305e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.602777777777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>150479.8244847578</v>
+        <v>172781.2176325255</v>
       </c>
     </row>
   </sheetData>
@@ -16224,28 +16224,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>126.7117746309127</v>
+        <v>151.747382680628</v>
       </c>
       <c r="AB2" t="n">
-        <v>173.3726401789042</v>
+        <v>207.6274636055835</v>
       </c>
       <c r="AC2" t="n">
-        <v>156.8261987303066</v>
+        <v>187.8117898861012</v>
       </c>
       <c r="AD2" t="n">
-        <v>126711.7746309127</v>
+        <v>151747.382680628</v>
       </c>
       <c r="AE2" t="n">
-        <v>173372.6401789042</v>
+        <v>207627.4636055835</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.689011202039566e-06</v>
+        <v>9.671551323189104e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.45</v>
       </c>
       <c r="AH2" t="n">
-        <v>156826.1987303066</v>
+        <v>187811.7898861012</v>
       </c>
     </row>
   </sheetData>
@@ -16521,28 +16521,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>332.1525058133258</v>
+        <v>371.7080688395038</v>
       </c>
       <c r="AB2" t="n">
-        <v>454.4657119881551</v>
+        <v>508.5873783888518</v>
       </c>
       <c r="AC2" t="n">
-        <v>411.0921422826378</v>
+        <v>460.0485128022877</v>
       </c>
       <c r="AD2" t="n">
-        <v>332152.5058133258</v>
+        <v>371708.0688395037</v>
       </c>
       <c r="AE2" t="n">
-        <v>454465.7119881551</v>
+        <v>508587.3783888518</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.057545501805506e-06</v>
+        <v>5.371986833303042e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.988888888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>411092.1422826378</v>
+        <v>460048.5128022877</v>
       </c>
     </row>
     <row r="3">
@@ -16627,28 +16627,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>165.9617747321117</v>
+        <v>185.8675675270578</v>
       </c>
       <c r="AB3" t="n">
-        <v>227.0762219051328</v>
+        <v>254.3122057887636</v>
       </c>
       <c r="AC3" t="n">
-        <v>205.4043859900514</v>
+        <v>230.0410057977807</v>
       </c>
       <c r="AD3" t="n">
-        <v>165961.7747321117</v>
+        <v>185867.5675270578</v>
       </c>
       <c r="AE3" t="n">
-        <v>227076.2219051328</v>
+        <v>254312.2057887636</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.646865993383637e-06</v>
+        <v>8.16436024184751e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.598611111111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>205404.3859900514</v>
+        <v>230041.0057977807</v>
       </c>
     </row>
     <row r="4">
@@ -16733,28 +16733,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>142.4113206770313</v>
+        <v>162.1465212713852</v>
       </c>
       <c r="AB4" t="n">
-        <v>194.8534516942822</v>
+        <v>221.8560238030661</v>
       </c>
       <c r="AC4" t="n">
-        <v>176.2569117431721</v>
+        <v>200.6823962682502</v>
       </c>
       <c r="AD4" t="n">
-        <v>142411.3206770313</v>
+        <v>162146.5212713853</v>
       </c>
       <c r="AE4" t="n">
-        <v>194853.4516942822</v>
+        <v>221856.0238030661</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.079086078662268e-06</v>
+        <v>8.923753881561074e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.208333333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>176256.9117431721</v>
+        <v>200682.3962682502</v>
       </c>
     </row>
     <row r="5">
@@ -16839,28 +16839,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>139.5986081645129</v>
+        <v>159.3338087588668</v>
       </c>
       <c r="AB5" t="n">
-        <v>191.004974346538</v>
+        <v>218.0075464553219</v>
       </c>
       <c r="AC5" t="n">
-        <v>172.7757276721235</v>
+        <v>197.2012121972017</v>
       </c>
       <c r="AD5" t="n">
-        <v>139598.6081645129</v>
+        <v>159333.8087588668</v>
       </c>
       <c r="AE5" t="n">
-        <v>191004.974346538</v>
+        <v>218007.5464553219</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.138172056856286e-06</v>
+        <v>9.027565614437546e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.159722222222222</v>
       </c>
       <c r="AH5" t="n">
-        <v>172775.7276721235</v>
+        <v>197201.2121972017</v>
       </c>
     </row>
   </sheetData>
@@ -17136,28 +17136,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>533.1396934935198</v>
+        <v>584.343886501026</v>
       </c>
       <c r="AB2" t="n">
-        <v>729.4652491011207</v>
+        <v>799.5250849435558</v>
       </c>
       <c r="AC2" t="n">
-        <v>659.8461095378161</v>
+        <v>723.2195329770467</v>
       </c>
       <c r="AD2" t="n">
-        <v>533139.6934935198</v>
+        <v>584343.886501026</v>
       </c>
       <c r="AE2" t="n">
-        <v>729465.2491011206</v>
+        <v>799525.0849435559</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.351177217258583e-06</v>
+        <v>4.020251020690789e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.758333333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>659846.1095378161</v>
+        <v>723219.5329770467</v>
       </c>
     </row>
     <row r="3">
@@ -17242,28 +17242,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>224.3993540707633</v>
+        <v>244.9152571241452</v>
       </c>
       <c r="AB3" t="n">
-        <v>307.0330960402842</v>
+        <v>335.1038596956714</v>
       </c>
       <c r="AC3" t="n">
-        <v>277.7302882779471</v>
+        <v>303.1220176476372</v>
       </c>
       <c r="AD3" t="n">
-        <v>224399.3540707632</v>
+        <v>244915.2571241452</v>
       </c>
       <c r="AE3" t="n">
-        <v>307033.0960402842</v>
+        <v>335103.8596956714</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.024150197162007e-06</v>
+        <v>6.880848376209119e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.118055555555555</v>
       </c>
       <c r="AH3" t="n">
-        <v>277730.2882779471</v>
+        <v>303122.0176476372</v>
       </c>
     </row>
     <row r="4">
@@ -17348,28 +17348,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>181.2941348801646</v>
+        <v>201.8952892795671</v>
       </c>
       <c r="AB4" t="n">
-        <v>248.0546334756791</v>
+        <v>276.2420417837155</v>
       </c>
       <c r="AC4" t="n">
-        <v>224.380647403697</v>
+        <v>249.8778890240994</v>
       </c>
       <c r="AD4" t="n">
-        <v>181294.1348801646</v>
+        <v>201895.2892795671</v>
       </c>
       <c r="AE4" t="n">
-        <v>248054.6334756791</v>
+        <v>276242.0417837155</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.502036567296611e-06</v>
+        <v>7.697980812337417e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.573611111111111</v>
       </c>
       <c r="AH4" t="n">
-        <v>224380.647403697</v>
+        <v>249877.8890240994</v>
       </c>
     </row>
     <row r="5">
@@ -17454,28 +17454,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>155.4225079357312</v>
+        <v>175.8530701345415</v>
       </c>
       <c r="AB5" t="n">
-        <v>212.6559321146965</v>
+        <v>240.609928647886</v>
       </c>
       <c r="AC5" t="n">
-        <v>192.3603484182059</v>
+        <v>217.6464547559573</v>
       </c>
       <c r="AD5" t="n">
-        <v>155422.5079357312</v>
+        <v>175853.0701345415</v>
       </c>
       <c r="AE5" t="n">
-        <v>212655.9321146965</v>
+        <v>240609.928647886</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.924913367676346e-06</v>
+        <v>8.42105301458312e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.181944444444444</v>
       </c>
       <c r="AH5" t="n">
-        <v>192360.3484182059</v>
+        <v>217646.4547559573</v>
       </c>
     </row>
     <row r="6">
@@ -17560,28 +17560,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>149.7188759742066</v>
+        <v>170.1494381730168</v>
       </c>
       <c r="AB6" t="n">
-        <v>204.8519712384591</v>
+        <v>232.8059677716487</v>
       </c>
       <c r="AC6" t="n">
-        <v>185.3011866150663</v>
+        <v>210.5872929528176</v>
       </c>
       <c r="AD6" t="n">
-        <v>149718.8759742065</v>
+        <v>170149.4381730168</v>
       </c>
       <c r="AE6" t="n">
-        <v>204851.9712384591</v>
+        <v>232805.9677716487</v>
       </c>
       <c r="AF6" t="n">
-        <v>5.008391501832655e-06</v>
+        <v>8.563791320987165e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.112500000000001</v>
       </c>
       <c r="AH6" t="n">
-        <v>185301.1866150663</v>
+        <v>210587.2929528176</v>
       </c>
     </row>
     <row r="7">
@@ -17666,28 +17666,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>150.2735271706795</v>
+        <v>170.7040893694897</v>
       </c>
       <c r="AB7" t="n">
-        <v>205.6108694749568</v>
+        <v>233.5648660081463</v>
       </c>
       <c r="AC7" t="n">
-        <v>185.9876566689932</v>
+        <v>211.2737630067446</v>
       </c>
       <c r="AD7" t="n">
-        <v>150273.5271706795</v>
+        <v>170704.0893694897</v>
       </c>
       <c r="AE7" t="n">
-        <v>205610.8694749568</v>
+        <v>233564.8660081463</v>
       </c>
       <c r="AF7" t="n">
-        <v>5.006612216557565e-06</v>
+        <v>8.560748941454573e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>5</v>
+        <v>4.113888888888889</v>
       </c>
       <c r="AH7" t="n">
-        <v>185987.6566689932</v>
+        <v>211273.7630067446</v>
       </c>
     </row>
   </sheetData>
@@ -17963,28 +17963,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>138.0875685797013</v>
+        <v>162.4161026339222</v>
       </c>
       <c r="AB2" t="n">
-        <v>188.9375033242382</v>
+        <v>222.2248769163793</v>
       </c>
       <c r="AC2" t="n">
-        <v>170.9055731824776</v>
+        <v>201.0160465581176</v>
       </c>
       <c r="AD2" t="n">
-        <v>138087.5685797013</v>
+        <v>162416.1026339222</v>
       </c>
       <c r="AE2" t="n">
-        <v>188937.5033242382</v>
+        <v>222224.8769163793</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.134923101392309e-06</v>
+        <v>8.863044712422922e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.399999999999999</v>
       </c>
       <c r="AH2" t="n">
-        <v>170905.5731824776</v>
+        <v>201016.0465581176</v>
       </c>
     </row>
   </sheetData>
@@ -18260,28 +18260,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>190.2999173692393</v>
+        <v>218.2640570938848</v>
       </c>
       <c r="AB2" t="n">
-        <v>260.3767423843077</v>
+        <v>298.6385120463237</v>
       </c>
       <c r="AC2" t="n">
-        <v>235.5267515322785</v>
+        <v>270.136871598495</v>
       </c>
       <c r="AD2" t="n">
-        <v>190299.9173692393</v>
+        <v>218264.0570938849</v>
       </c>
       <c r="AE2" t="n">
-        <v>260376.7423843077</v>
+        <v>298638.5120463237</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.175737770720129e-06</v>
+        <v>7.693515126837525e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.431944444444444</v>
       </c>
       <c r="AH2" t="n">
-        <v>235526.7515322785</v>
+        <v>270136.8715984949</v>
       </c>
     </row>
     <row r="3">
@@ -18366,28 +18366,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>127.8703114845187</v>
+        <v>146.5415480886566</v>
       </c>
       <c r="AB3" t="n">
-        <v>174.9578014130459</v>
+        <v>200.5046110516386</v>
       </c>
       <c r="AC3" t="n">
-        <v>158.2600744010501</v>
+        <v>181.3687323829162</v>
       </c>
       <c r="AD3" t="n">
-        <v>127870.3114845187</v>
+        <v>146541.5480886567</v>
       </c>
       <c r="AE3" t="n">
-        <v>174957.8014130459</v>
+        <v>200504.6110516386</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.220039637825648e-06</v>
+        <v>9.617570863262614e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.344444444444445</v>
       </c>
       <c r="AH3" t="n">
-        <v>158260.0744010501</v>
+        <v>181368.7323829162</v>
       </c>
     </row>
     <row r="4">
@@ -18472,28 +18472,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>128.0192240611293</v>
+        <v>146.6904606652672</v>
       </c>
       <c r="AB4" t="n">
-        <v>175.1615501699236</v>
+        <v>200.7083598085163</v>
       </c>
       <c r="AC4" t="n">
-        <v>158.4443776625346</v>
+        <v>181.5530356444007</v>
       </c>
       <c r="AD4" t="n">
-        <v>128019.2240611292</v>
+        <v>146690.4606652672</v>
       </c>
       <c r="AE4" t="n">
-        <v>175161.5501699236</v>
+        <v>200708.3598085163</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.234573315100454e-06</v>
+        <v>9.64434818312842e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.333333333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>158444.3776625346</v>
+        <v>181553.0356444007</v>
       </c>
     </row>
   </sheetData>
@@ -18769,28 +18769,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>272.2374068013731</v>
+        <v>301.2934481780597</v>
       </c>
       <c r="AB2" t="n">
-        <v>372.4872302523858</v>
+        <v>412.2429879260445</v>
       </c>
       <c r="AC2" t="n">
-        <v>336.9375717862084</v>
+        <v>372.8990957450495</v>
       </c>
       <c r="AD2" t="n">
-        <v>272237.4068013731</v>
+        <v>301293.4481780597</v>
       </c>
       <c r="AE2" t="n">
-        <v>372487.2302523858</v>
+        <v>412242.9879260445</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.454967771697483e-06</v>
+        <v>6.172047786530134e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.320833333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>336937.5717862084</v>
+        <v>372899.0957450495</v>
       </c>
     </row>
     <row r="3">
@@ -18875,28 +18875,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>149.2022456092183</v>
+        <v>168.5445227450022</v>
       </c>
       <c r="AB3" t="n">
-        <v>204.1450947809595</v>
+        <v>230.6100516791686</v>
       </c>
       <c r="AC3" t="n">
-        <v>184.6617734545628</v>
+        <v>208.6009520102156</v>
       </c>
       <c r="AD3" t="n">
-        <v>149202.2456092183</v>
+        <v>168544.5227450022</v>
       </c>
       <c r="AE3" t="n">
-        <v>204145.0947809595</v>
+        <v>230610.0516791686</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.896227820077497e-06</v>
+        <v>8.746753682280838e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.459722222222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>184661.7734545628</v>
+        <v>208600.9520102156</v>
       </c>
     </row>
     <row r="4">
@@ -18981,28 +18981,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>134.7106907304881</v>
+        <v>154.052967866272</v>
       </c>
       <c r="AB4" t="n">
-        <v>184.3171100736106</v>
+        <v>210.7820669718197</v>
       </c>
       <c r="AC4" t="n">
-        <v>166.7261437789256</v>
+        <v>190.6653223345784</v>
       </c>
       <c r="AD4" t="n">
-        <v>134710.6907304881</v>
+        <v>154052.967866272</v>
       </c>
       <c r="AE4" t="n">
-        <v>184317.1100736106</v>
+        <v>210782.0669718197</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.182844714175542e-06</v>
+        <v>9.258773846778879e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.213888888888889</v>
       </c>
       <c r="AH4" t="n">
-        <v>166726.1437789256</v>
+        <v>190665.3223345784</v>
       </c>
     </row>
   </sheetData>
